--- a/doc/CS673_ProgressReport_team4.xlsx
+++ b/doc/CS673_ProgressReport_team4.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
   <si>
     <t xml:space="preserve">This sheet should be completed by the team leader (or other member in the team) by the end of each iteration. </t>
   </si>
@@ -104,6 +104,17 @@
   </si>
   <si>
     <t>Lost a member, gained a member (again)</t>
+  </si>
+  <si>
+    <t>9-25 to 10-8-24</t>
+  </si>
+  <si>
+    <t>Testing for frontend and backend.
+Docker setup.
+Admin feature to assign team.
+Group user feature.
+Team assignment algorithm.
+Created observer.</t>
   </si>
   <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
@@ -261,13 +272,31 @@
     <t xml:space="preserve">Help set up development plan and continue to update necessary documents </t>
   </si>
   <si>
-    <t>9/12-9-24</t>
+    <t>9/12-9/24</t>
   </si>
   <si>
     <t>1- Requirements Creating 
 2 - Logo Creation
 5 - preparing for project (PP, Excels, Docs, etc.)
 7- Questionnaire questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Helping with presentation PP, SPPP,  progress report doc, presentation video, and writing Meeting Minutes </t>
+  </si>
+  <si>
+    <t>1. Docker not working for me                                         2. Lost another member</t>
+  </si>
+  <si>
+    <t>Get Docker working, help with tests, review code</t>
+  </si>
+  <si>
+    <t>9/24-10/7</t>
+  </si>
+  <si>
+    <t>0- learn docker and how to use - finally worked - 
+go through application and what we have
+5 - preparing for project (PP, Excels, Docs, etc.)
+7- reviewing code</t>
   </si>
   <si>
     <r>
@@ -340,6 +369,40 @@
 3. Implement algorithm for assigning teams</t>
   </si>
   <si>
+    <t>09/24-10/07</t>
+  </si>
+  <si>
+    <t>0 - Looking for right algorithm for team assignment
+1 - Update documents according to new implementation
+2 - Design team assignment algorithm
+3 - Implement group for users, algorithm for team assignment
+4 - Automation test code for backend
+6 - Update dockfile, provide instruction for using backend and api endpoints
+7 - Present algorithm and demo</t>
+  </si>
+  <si>
+    <t>1 - Update SDD, SPPP, STD with the new algorithm, data structure, and test results
+2 - Design team assignment algorithm
+3 - Implement group for users, algorithm for team assignment
+4 - Automation test code for backend, with TDD
+6 - Update dockfile, provide readme files with instruction for using backend and api endpoints
+7 - Present algorithm and demo for new features</t>
+  </si>
+  <si>
+    <t>6. Member not able to setup docker following the instruction</t>
+  </si>
+  <si>
+    <t>6. Resolved the docker issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Prepare all documents for final presentation
+3. Implement team database to store formed team data
+</t>
+  </si>
+  <si>
+    <t>10/08-10/15</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -379,9 +442,6 @@
 4 - setup e2e, integration testing framework</t>
   </si>
   <si>
-    <t>9/12-9/24</t>
-  </si>
-  <si>
     <t>0 - research on UI prototyping
 2 - define conceptual ERD
 3 - implementation of UI - side navigation, 
@@ -412,6 +472,32 @@
 testing, integration
 testing on the server
 side
+</t>
+  </si>
+  <si>
+    <t>9/24-10/8</t>
+  </si>
+  <si>
+    <t>0 - research on end to end testing framework
+3 - implement inputs for answers, role, 
+setup end-to-end testing using Playwright
+4 - write end-to-end test to add user details and save
+7 - UI and end-to-end testing demo</t>
+  </si>
+  <si>
+    <t>1. Update STD
+2. Implement UI features, 
+end to end testing
+3. Demo</t>
+  </si>
+  <si>
+    <t>1. Implementation of 
+autocomplete in the answers 
+input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - implement rest of UI
+4 - write more end to end tests
 </t>
   </si>
   <si>
@@ -487,6 +573,34 @@
 7 - updates all the progress in Jira and finish to do list</t>
   </si>
   <si>
+    <t>09/24-10/7</t>
+  </si>
+  <si>
+    <t>0 - research security for log in admin
+1 - updates risk management document
+3 - Assign UUID for user instead of ID
+4 - implement Admin to be able to use the assign team function
+6 - merge changes to group selection branch via github
+5 - meet with teammates to discuss the algorithm</t>
+  </si>
+  <si>
+    <t>1. updates the risk management docu
+2. implement changes to function: Assign UUID for user
+3 -implement Admin for using assign team function and merge changes to group selection branch</t>
+  </si>
+  <si>
+    <t>1. code conflicts may appear when make changes to existing method
+2. not familiar with login admin security function</t>
+  </si>
+  <si>
+    <t>1. improve code review process
+2. study documentation and security framework</t>
+  </si>
+  <si>
+    <t>1 - updates and finish all the document to prepare for final submission
+3 - implement the team database</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -555,6 +669,33 @@
     <t>0. Continue learning H2 and Angular
 1. Confer with self and team on how to contribute more
 3. Implement observer pattern / notification system</t>
+  </si>
+  <si>
+    <t>0 - Restudy Observer and learn Testing syntax in Java
+3 - Implemented Observer classes
+4 - Created lab 3 Version of Delete User
+5- Review pull requests, both to understand what they are adding/how they work, as well as to check for any possible issues that may have appeared
+7- Edit SDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edits/Additions to doccuments
+Observer Classes and implementation into prexisting code
+</t>
+  </si>
+  <si>
+    <t>1. Docker would stop working upon closing window
+2. Unsure how to implement email function
+3. While I checked over the pull requests, I didn't always submit a review</t>
+  </si>
+  <si>
+    <t>1. Docker requires me to restart my computer when this happens so I just need to be sure to not close the window or restart as soon as I notice.
+2. Spring boot and a java plugin both have this function so I need to determine which one will be the most effective as well as the easiest to roll into the existing code
+3. Need to be more careful to doccument reviews as well as any other work I am contributing with</t>
+  </si>
+  <si>
+    <t>1. implement email function.
+2. Assist in final edits of all doccuments
+3. Assist in any additional code work neccesary for the final itteration</t>
   </si>
 </sst>
 </file>
@@ -1001,12 +1142,12 @@
         <v>25</v>
       </c>
       <c r="L4">
-        <f>sum(O4:V4)</f>
+        <f t="shared" ref="L4:L6" si="1">sum(O4:V4)</f>
         <v>38</v>
       </c>
       <c r="M4" s="10">
         <f>'Jake Kelly'!D6+'Raymond Chen'!D5+Vishal!D4+'Wenli Gai'!D5+'Max Zink'!D5</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4">
         <f>'Jake Kelly'!E5</f>
@@ -1061,9 +1202,13 @@
       <c r="H5" s="9">
         <v>3.0</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="M5" s="10">
         <f>'Jake Kelly'!D7+'Raymond Chen'!D6+Vishal!D5+'Wenli Gai'!D6+'Max Zink'!D6</f>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N5" s="9">
         <v>3.0</v>
@@ -1105,8 +1250,55 @@
       <c r="A6" s="8">
         <v>2.0</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="M6" s="10">
+        <f>'Jake Kelly'!D8+'Raymond Chen'!D7+Vishal!D6+'Wenli Gai'!D7+'Max Zink'!D7</f>
+        <v>64</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="O6">
+        <f>'Jake Kelly'!G7+'Raymond Chen'!G7+Vishal!G6+'Wenli Gai'!G7+'Max Zink'!G7</f>
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <f>'Jake Kelly'!H7+'Raymond Chen'!H7+Vishal!H6+'Wenli Gai'!H7+'Max Zink'!H7</f>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f>'Jake Kelly'!I7+'Raymond Chen'!I7+Vishal!I6+'Wenli Gai'!I7+'Max Zink'!I7</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>'Jake Kelly'!J7+'Raymond Chen'!J7+Vishal!J6+'Wenli Gai'!J7+'Max Zink'!J7</f>
+        <v>29</v>
+      </c>
+      <c r="S6">
+        <f>'Jake Kelly'!K7+'Raymond Chen'!K7+Vishal!K6+'Wenli Gai'!K7+'Max Zink'!K7</f>
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <f>'Jake Kelly'!L7+'Raymond Chen'!L7+Vishal!L6+'Wenli Gai'!L7+'Max Zink'!L7</f>
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <f>'Jake Kelly'!M7+'Raymond Chen'!M7+Vishal!M6+'Wenli Gai'!M7+'Max Zink'!M7</f>
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <f>'Jake Kelly'!N7+'Raymond Chen'!N7+Vishal!N6+'Wenli Gai'!N7+'Max Zink'!N7</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
@@ -1153,7 +1345,7 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1183,37 +1375,37 @@
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1233,27 +1425,27 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1486,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1320,7 +1512,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -1341,22 +1533,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -1383,19 +1575,19 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
@@ -1410,7 +1602,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="25">
         <f>D4+E4</f>
@@ -1424,7 +1616,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="25">
         <v>3.0</v>
@@ -1445,16 +1637,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S4" s="25">
         <v>6.0</v>
@@ -1472,7 +1664,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9">
         <v>8.0</v>
@@ -1484,7 +1676,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1497,16 +1689,16 @@
       <c r="M5" s="11"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S5" s="8">
         <v>10.0</v>
@@ -1520,7 +1712,10 @@
         <v>45325.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="9">
+        <v>11.0</v>
       </c>
       <c r="D6" s="9">
         <v>8.0</v>
@@ -1529,7 +1724,7 @@
         <v>3.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="8">
@@ -1547,24 +1742,54 @@
       <c r="N6" s="8">
         <v>1.0</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="R6" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
     </row>
     <row r="7">
-      <c r="G7" s="11"/>
+      <c r="A7" s="28">
+        <v>45355.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4.0</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="8">
+        <v>4.0</v>
+      </c>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="N7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -19525,7 +19750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -19551,7 +19776,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -19572,22 +19797,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -19614,19 +19839,19 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
@@ -19641,10 +19866,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="25">
-        <f>D4+E4</f>
+        <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>7</v>
       </c>
       <c r="D4" s="25">
@@ -19655,7 +19880,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="25">
         <v>3.0</v>
@@ -19676,16 +19901,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S4" s="25">
         <v>6.0</v>
@@ -19703,19 +19928,21 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
-      <c r="C5" s="9">
-        <v>7.0</v>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="D5" s="9">
-        <v>6.0</v>
+        <f t="shared" ref="D5:D8" si="2">sum(G5:N5)</f>
+        <v>7</v>
       </c>
       <c r="E5" s="9">
         <v>2.0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G5" s="8">
         <v>1.0</v>
@@ -19732,16 +19959,16 @@
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="S5" s="8">
         <v>15.0</v>
@@ -19755,19 +19982,21 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
-      <c r="C6" s="9">
-        <v>18.0</v>
+      <c r="C6" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="D6" s="9">
-        <v>17.0</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="E6" s="9">
         <v>2.0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8">
         <v>2.0</v>
@@ -19790,16 +20019,16 @@
         <v>3.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="S6" s="8">
         <v>20.0</v>
@@ -19809,24 +20038,82 @@
       <c r="V6" s="11"/>
     </row>
     <row r="7">
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" ref="C7:C8" si="3">sum(D7:E7)</f>
+        <v>22</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="M7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="8">
+        <v>15.0</v>
+      </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
     </row>
     <row r="8">
+      <c r="A8" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -37777,7 +38064,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -37803,7 +38090,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -37824,22 +38111,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -37866,19 +38153,19 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
@@ -37893,7 +38180,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="29">
         <v>7.0</v>
@@ -37905,7 +38192,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G4" s="31">
         <v>3.0</v>
@@ -37924,16 +38211,16 @@
         <v>1.0</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="S4" s="31">
         <v>10.0</v>
@@ -37947,7 +38234,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C5" s="29">
         <v>11.0</v>
@@ -37959,7 +38246,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G5" s="31">
         <v>3.0</v>
@@ -37980,16 +38267,16 @@
         <v>1.0</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="S5" s="31">
         <v>10.0</v>
@@ -37999,20 +38286,53 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6">
-      <c r="F6" s="35"/>
-      <c r="G6" s="11"/>
+      <c r="A6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.0</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="J6" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2.0</v>
+      </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="N6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="R6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="8">
+        <v>15.0</v>
+      </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
@@ -55968,7 +56288,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -55994,7 +56314,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -56015,22 +56335,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -56057,19 +56377,19 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
@@ -56084,7 +56404,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="25">
         <f>D4+E4</f>
@@ -56098,7 +56418,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="25">
         <v>3.0</v>
@@ -56119,16 +56439,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S4" s="25">
         <v>6.0</v>
@@ -56146,7 +56466,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C5" s="9">
         <v>7.0</v>
@@ -56158,7 +56478,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G5" s="8">
         <v>3.0</v>
@@ -56177,16 +56497,16 @@
         <v>4.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="S5" s="8">
         <v>10.0</v>
@@ -56200,7 +56520,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C6" s="9">
         <v>10.0</v>
@@ -56212,7 +56532,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G6" s="8">
         <v>5.0</v>
@@ -56229,16 +56549,16 @@
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="8" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="S6" s="8">
         <v>10.0</v>
@@ -56248,19 +56568,59 @@
       <c r="V6" s="11"/>
     </row>
     <row r="7">
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3.0</v>
+      </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="J7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.0</v>
+      </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="O7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" s="8">
+        <v>15.0</v>
+      </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -74192,10 +74552,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="24.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -74218,7 +74581,7 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -74236,22 +74599,22 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -74278,19 +74641,19 @@
         <v>22</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -74298,7 +74661,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="42">
         <f>D4+E4</f>
@@ -74312,7 +74675,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="42">
         <v>3.0</v>
@@ -74333,16 +74696,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S4" s="42">
         <v>6.0</v>
@@ -74353,7 +74716,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="44">
         <v>8.0</v>
@@ -74365,7 +74728,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="G5" s="44">
         <v>2.0</v>
@@ -74386,16 +74749,16 @@
         <v>2.0</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="R5" s="46" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="S5" s="44">
         <v>10.0</v>
@@ -74406,7 +74769,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9">
         <v>12.0</v>
@@ -74418,7 +74781,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G6" s="9">
         <v>3.0</v>
@@ -74436,33 +74799,72 @@
         <v>3.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="R6" s="49" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="S6" s="9">
         <v>14.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2.0</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="J7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="9">
+        <v>12.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/CS673_ProgressReport_team4.xlsx
+++ b/doc/CS673_ProgressReport_team4.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
   <si>
     <t xml:space="preserve">This sheet should be completed by the team leader (or other member in the team) by the end of each iteration. </t>
   </si>
@@ -117,6 +117,13 @@
 Created observer.</t>
   </si>
   <si>
+    <t>10-9 to 10-15-24</t>
+  </si>
+  <si>
+    <t>Frontend and backend connection
+Cleanup and testing</t>
+  </si>
+  <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
 the group project in each category in the whole semester.</t>
   </si>
@@ -155,6 +162,9 @@
   </si>
   <si>
     <t>Jake Kelly</t>
+  </si>
+  <si>
+    <t>Code Reviewing</t>
   </si>
   <si>
     <t>Meng Zhou</t>
@@ -299,6 +309,17 @@
 7- reviewing code</t>
   </si>
   <si>
+    <t>1. Helping with presentation PP, SPPP,  progress report doc, presentation video, and writing Meeting Minutes 
+2. reviewing code</t>
+  </si>
+  <si>
+    <t>10/8-10/15</t>
+  </si>
+  <si>
+    <t>5 - preparing for project (PP, Excels, Docs, etc.)
+7- reviewing code</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -403,6 +424,27 @@
     <t>10/08-10/15</t>
   </si>
   <si>
+    <t>1 - Write presentation, update database design in SDD
+3 - Add Team repository for assigned team, implement admin protection, frontend group assignment
+4 - Implement testing for Admin functions
+6 - Deployed backend</t>
+  </si>
+  <si>
+    <t>1 - Create presentation template and write design and implementation
+1 - update database design in SDD
+3 - Add Team repository for assigned team
+3 - implement admin protection for viewing all users
+3 - Added a tab in frontend for group assignment
+4 - Implement testing for Admin functions
+6 - Deployed backend</t>
+  </si>
+  <si>
+    <t>6. Unable to deploy frontend</t>
+  </si>
+  <si>
+    <t>6. Demo with local environment</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -499,6 +541,31 @@
     <t xml:space="preserve">3 - implement rest of UI
 4 - write more end to end tests
 </t>
+  </si>
+  <si>
+    <t>10/8 - 10/15</t>
+  </si>
+  <si>
+    <t>0 - research on various UI layouts for user inputs
+3 - implement form teams, view teams
+4 - write more unit tests on sidenav and authentication
+7 - Testing demo for final presentation</t>
+  </si>
+  <si>
+    <t>1. Update STD
+2. Implement UI features, unit tests
+3. demo</t>
+  </si>
+  <si>
+    <t>Unit tests on UI side break
+frequently but managed to fix
+them</t>
+  </si>
+  <si>
+    <t>Issues resolved</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <r>
@@ -601,6 +668,23 @@
 3 - implement the team database</t>
   </si>
   <si>
+    <t>1 - Write presentation
+4 - check the security design and risk management doc
+7 - reviewing codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - presentation template and write security part of presentation and present that part
+5 - updates SDD doc about security design
+7 - reviews code
+</t>
+  </si>
+  <si>
+    <t>1. the frond end deploy unsuccessfully</t>
+  </si>
+  <si>
+    <t>use local environment instead</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -697,6 +781,24 @@
 2. Assist in final edits of all doccuments
 3. Assist in any additional code work neccesary for the final itteration</t>
   </si>
+  <si>
+    <t>0 - Study spring based email system
+3 - Attempted to implement email notification system
+7- Edit Slides / Record Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited slides, doccuments, and recorded for final presentation.
+</t>
+  </si>
+  <si>
+    <t>1. Multiple issues implementing email service into project</t>
+  </si>
+  <si>
+    <t>1. I will try to keep it brief, but I spent numerous hours trying to implement these classes. It started with a couple compilation errors due to many minescule mistakes. Then multiple attempts of trying different variations of email service classes. Ultimately, I could never get the code to work as I would either get a null pointer trying to combine static and spring classes, or a result which would crash the whole project when trying to adapt the observer patters into spring. Ultimately, we left the observer pattern in while scrapping the email system and setting it as a desired feature.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
 </sst>
 </file>
 
@@ -752,7 +854,7 @@
       <sz val="10.0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,8 +863,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -789,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -843,10 +957,11 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -861,15 +976,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -895,10 +1013,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -910,10 +1028,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1142,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L6" si="1">sum(O4:V4)</f>
+        <f t="shared" ref="L4:L7" si="1">sum(O4:V4)</f>
         <v>38</v>
       </c>
       <c r="M4" s="10">
@@ -1262,7 +1380,7 @@
       </c>
       <c r="M6" s="10">
         <f>'Jake Kelly'!D8+'Raymond Chen'!D7+Vishal!D6+'Wenli Gai'!D7+'Max Zink'!D7</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N6" s="9">
         <v>3.0</v>
@@ -1304,8 +1422,55 @@
       <c r="A7" s="8">
         <v>3.0</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="M7" s="10">
+        <f>'Jake Kelly'!D9+'Raymond Chen'!D8+Vishal!D7+'Wenli Gai'!D8+'Max Zink'!D8</f>
+        <v>49</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="O7">
+        <f>'Jake Kelly'!G8+'Raymond Chen'!G8+Vishal!G7+'Wenli Gai'!G8+'Max Zink'!G8</f>
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <f>'Jake Kelly'!H8+'Raymond Chen'!H8+Vishal!H7+'Wenli Gai'!H8+'Max Zink'!H8</f>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f>'Jake Kelly'!I8+'Raymond Chen'!I8+Vishal!I7+'Wenli Gai'!I8+'Max Zink'!I8</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>'Jake Kelly'!J8+'Raymond Chen'!J8+Vishal!J7+'Wenli Gai'!J8+'Max Zink'!J8</f>
+        <v>27</v>
+      </c>
+      <c r="S7">
+        <f>'Jake Kelly'!K8+'Raymond Chen'!K8+Vishal!K7+'Wenli Gai'!K8+'Max Zink'!K8</f>
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <f>'Jake Kelly'!L8+'Raymond Chen'!L8+Vishal!L7+'Wenli Gai'!L8+'Max Zink'!L8</f>
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <f>'Jake Kelly'!M8+'Raymond Chen'!M8+Vishal!M7+'Wenli Gai'!M8+'Max Zink'!M8</f>
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <f>'Jake Kelly'!N8+'Raymond Chen'!N8+Vishal!N7+'Wenli Gai'!N8+'Max Zink'!N8</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8"/>
@@ -1339,13 +1504,18 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="28.13"/>
     <col customWidth="1" min="4" max="4" width="17.5"/>
+    <col customWidth="1" min="5" max="5" width="21.0"/>
     <col customWidth="1" min="6" max="6" width="10.63"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
+    <col customWidth="1" min="7" max="7" width="24.13"/>
+    <col customWidth="1" min="8" max="8" width="36.0"/>
+    <col customWidth="1" min="9" max="9" width="22.25"/>
+    <col customWidth="1" min="10" max="10" width="30.13"/>
+    <col customWidth="1" min="11" max="11" width="13.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1375,37 +1545,37 @@
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1425,27 +1595,34 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1485,70 +1662,70 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>48</v>
+      <c r="A1" s="20" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>49</v>
+      <c r="A2" s="21" t="s">
+        <v>52</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -1575,96 +1752,96 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>59</v>
+      <c r="S3" s="24" t="s">
+        <v>62</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>1.0</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>60</v>
+      <c r="B4" s="26" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="26">
         <f>D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="26">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="26">
         <v>1.0</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>61</v>
+      <c r="F4" s="26" t="s">
+        <v>64</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="26">
         <v>3.0</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>1.0</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="25">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="26">
         <v>0.5</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="26">
         <v>1.0</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="26">
         <v>0.5</v>
       </c>
-      <c r="O4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="25">
+      <c r="P4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="26">
         <v>6.0</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
     </row>
     <row r="5">
       <c r="A5" s="9">
         <v>1.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9">
         <v>8.0</v>
@@ -1676,7 +1853,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1689,16 +1866,16 @@
       <c r="M5" s="11"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S5" s="8">
         <v>10.0</v>
@@ -1708,11 +1885,11 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="28">
+      <c r="A6" s="29">
         <v>45325.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="9">
         <v>11.0</v>
@@ -1724,7 +1901,7 @@
         <v>3.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="8">
@@ -1743,26 +1920,28 @@
         <v>1.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>45355.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9">
         <v>12.0</v>
@@ -1774,7 +1953,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G7" s="8">
         <v>4.0</v>
@@ -1790,29 +1969,59 @@
       <c r="N7" s="8">
         <v>2.0</v>
       </c>
-      <c r="O7" s="11"/>
+      <c r="O7" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="S7" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
     </row>
     <row r="8">
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="8">
+        <v>4.0</v>
+      </c>
       <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="N8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
@@ -19749,70 +19958,70 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>48</v>
+      <c r="A1" s="20" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>79</v>
+      <c r="A2" s="21" t="s">
+        <v>85</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -19839,96 +20048,96 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>59</v>
+      <c r="S3" s="24" t="s">
+        <v>62</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>1.0</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>60</v>
+      <c r="B4" s="26" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="26">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="26">
         <v>1.0</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>61</v>
+      <c r="F4" s="26" t="s">
+        <v>64</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="26">
         <v>3.0</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>1.0</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="25">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="26">
         <v>0.5</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="26">
         <v>1.0</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="26">
         <v>0.5</v>
       </c>
-      <c r="O4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="25">
+      <c r="P4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="26">
         <v>6.0</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
     </row>
     <row r="5">
       <c r="A5" s="9">
         <v>1.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="1"/>
@@ -19942,7 +20151,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G5" s="8">
         <v>1.0</v>
@@ -19959,16 +20168,16 @@
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="S5" s="8">
         <v>15.0</v>
@@ -19982,7 +20191,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="1"/>
@@ -19996,7 +20205,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G6" s="8">
         <v>2.0</v>
@@ -20019,16 +20228,16 @@
         <v>3.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="S6" s="8">
         <v>20.0</v>
@@ -20042,7 +20251,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" ref="C7:C8" si="3">sum(D7:E7)</f>
@@ -20056,7 +20265,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" s="8">
         <v>1.0</v>
@@ -20081,16 +20290,16 @@
         <v>2.0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="S7" s="8">
         <v>15.0</v>
@@ -20104,27 +20313,47 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="8">
+        <v>2.0</v>
+      </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.0</v>
+      </c>
       <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="8">
+        <v>1.0</v>
+      </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="O8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -38063,70 +38292,70 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>48</v>
+      <c r="A1" s="20" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>99</v>
+      <c r="A2" s="21" t="s">
+        <v>109</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -38153,76 +38382,76 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>59</v>
+      <c r="S3" s="24" t="s">
+        <v>62</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4" ht="90.75" customHeight="1">
-      <c r="A4" s="29">
+      <c r="A4" s="31">
         <v>1.0</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>66</v>
+      <c r="B4" s="31" t="s">
+        <v>69</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="31">
         <v>7.0</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="31">
         <v>6.0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="31">
         <v>2.0</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>100</v>
+      <c r="F4" s="32" t="s">
+        <v>110</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="33">
         <v>3.0</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="33">
         <v>1.0</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31">
+      <c r="L4" s="34"/>
+      <c r="M4" s="33">
         <v>1.0</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="33">
         <v>1.0</v>
       </c>
-      <c r="O4" s="33" t="s">
-        <v>101</v>
+      <c r="O4" s="35" t="s">
+        <v>111</v>
       </c>
-      <c r="P4" s="33" t="s">
-        <v>102</v>
+      <c r="P4" s="35" t="s">
+        <v>112</v>
       </c>
-      <c r="Q4" s="33" t="s">
-        <v>103</v>
+      <c r="Q4" s="35" t="s">
+        <v>113</v>
       </c>
-      <c r="R4" s="33" t="s">
-        <v>104</v>
+      <c r="R4" s="35" t="s">
+        <v>114</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="33">
         <v>10.0</v>
       </c>
       <c r="T4" s="11"/>
@@ -38230,55 +38459,55 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="29">
+      <c r="A5" s="31">
         <v>2.0</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>72</v>
+      <c r="B5" s="31" t="s">
+        <v>75</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="31">
         <v>11.0</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="31">
         <v>11.0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>2.0</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>105</v>
+      <c r="F5" s="36" t="s">
+        <v>115</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="33">
         <v>3.0</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31">
+      <c r="H5" s="34"/>
+      <c r="I5" s="33">
         <v>2.0</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="33">
         <v>4.0</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="33">
         <v>1.0</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="31">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="33">
         <v>1.0</v>
       </c>
-      <c r="O5" s="33" t="s">
-        <v>106</v>
+      <c r="O5" s="35" t="s">
+        <v>116</v>
       </c>
-      <c r="P5" s="33" t="s">
-        <v>107</v>
+      <c r="P5" s="35" t="s">
+        <v>117</v>
       </c>
-      <c r="Q5" s="33" t="s">
-        <v>108</v>
+      <c r="Q5" s="35" t="s">
+        <v>118</v>
       </c>
-      <c r="R5" s="33" t="s">
-        <v>109</v>
+      <c r="R5" s="35" t="s">
+        <v>119</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="33">
         <v>10.0</v>
       </c>
       <c r="T5" s="11"/>
@@ -38290,7 +38519,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C6" s="9">
         <v>16.0</v>
@@ -38301,8 +38530,8 @@
       <c r="E6" s="9">
         <v>1.0</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>111</v>
+      <c r="F6" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="G6" s="8">
         <v>3.0</v>
@@ -38321,14 +38550,14 @@
         <v>1.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="S6" s="8">
         <v>15.0</v>
@@ -38338,19 +38567,55 @@
       <c r="V6" s="11"/>
     </row>
     <row r="7">
-      <c r="G7" s="11"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="J7" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="N7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
@@ -56287,70 +56552,70 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>48</v>
+      <c r="A1" s="20" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>115</v>
+      <c r="A2" s="21" t="s">
+        <v>131</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -56377,96 +56642,96 @@
         <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>59</v>
+      <c r="S3" s="24" t="s">
+        <v>62</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <v>1.0</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>60</v>
+      <c r="B4" s="26" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="26">
         <f>D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="26">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="26">
         <v>1.0</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>61</v>
+      <c r="F4" s="26" t="s">
+        <v>64</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="26">
         <v>3.0</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>1.0</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="25">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="26">
         <v>0.5</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="26">
         <v>1.0</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="26">
         <v>0.5</v>
       </c>
-      <c r="O4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="25">
+      <c r="P4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="26">
         <v>6.0</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
     </row>
     <row r="5">
       <c r="A5" s="9">
         <v>1.0</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>116</v>
+      <c r="B5" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="C5" s="9">
         <v>7.0</v>
@@ -56478,7 +56743,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G5" s="8">
         <v>3.0</v>
@@ -56497,16 +56762,16 @@
         <v>4.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="S5" s="8">
         <v>10.0</v>
@@ -56520,7 +56785,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C6" s="9">
         <v>10.0</v>
@@ -56532,7 +56797,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G6" s="8">
         <v>5.0</v>
@@ -56549,16 +56814,16 @@
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="8" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="S6" s="8">
         <v>10.0</v>
@@ -56572,7 +56837,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C7" s="9">
         <v>17.0</v>
@@ -56584,7 +56849,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G7" s="8">
         <v>3.0</v>
@@ -56607,16 +56872,16 @@
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="8" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="S7" s="8">
         <v>15.0</v>
@@ -56626,17 +56891,47 @@
       <c r="V7" s="11"/>
     </row>
     <row r="8">
-      <c r="G8" s="11"/>
+      <c r="A8" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3.0</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="8">
+        <v>2.0</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="8">
+        <v>5.0</v>
+      </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="O8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -74554,67 +74849,68 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="6" max="6" width="24.63"/>
+    <col customWidth="1" min="17" max="17" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
-        <v>48</v>
+      <c r="A1" s="39" t="s">
+        <v>51</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>134</v>
+      <c r="A2" s="21" t="s">
+        <v>154</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>54</v>
+      <c r="F3" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -74641,126 +74937,126 @@
         <v>22</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
-      <c r="P3" s="41" t="s">
-        <v>56</v>
+      <c r="P3" s="43" t="s">
+        <v>59</v>
       </c>
-      <c r="Q3" s="41" t="s">
-        <v>57</v>
+      <c r="Q3" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>59</v>
+      <c r="S3" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42">
+      <c r="A4" s="44">
         <v>1.0</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>60</v>
+      <c r="B4" s="45" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="44">
         <f>D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="44">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="44">
         <v>1.0</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>61</v>
+      <c r="F4" s="45" t="s">
+        <v>64</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="44">
         <v>3.0</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="44">
         <v>1.0</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="42">
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="44">
         <v>0.5</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="44">
         <v>1.0</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="44">
         <v>0.5</v>
       </c>
-      <c r="O4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="43" t="s">
+      <c r="O4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="42">
+      <c r="P4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="44">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44">
+      <c r="A5" s="46">
         <v>1.0</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>66</v>
+      <c r="B5" s="47" t="s">
+        <v>69</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="46">
         <v>8.0</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="46">
         <v>7.0</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="46">
         <v>1.0</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>135</v>
+      <c r="F5" s="48" t="s">
+        <v>155</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="46">
         <v>2.0</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="44">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="46">
         <v>1.0</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="44">
+      <c r="K5" s="41"/>
+      <c r="L5" s="46">
         <v>1.0</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="46">
         <v>1.0</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="46">
         <v>2.0</v>
       </c>
-      <c r="O5" s="47" t="s">
-        <v>136</v>
+      <c r="O5" s="49" t="s">
+        <v>156</v>
       </c>
-      <c r="P5" s="46" t="s">
-        <v>137</v>
+      <c r="P5" s="48" t="s">
+        <v>157</v>
       </c>
-      <c r="Q5" s="46" t="s">
-        <v>138</v>
+      <c r="Q5" s="48" t="s">
+        <v>158</v>
       </c>
-      <c r="R5" s="46" t="s">
-        <v>139</v>
+      <c r="R5" s="48" t="s">
+        <v>159</v>
       </c>
-      <c r="S5" s="44">
+      <c r="S5" s="46">
         <v>10.0</v>
       </c>
     </row>
@@ -74769,7 +75065,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="9">
         <v>12.0</v>
@@ -74780,8 +75076,8 @@
       <c r="E6" s="9">
         <v>2.0</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>140</v>
+      <c r="F6" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G6" s="9">
         <v>3.0</v>
@@ -74799,16 +75095,16 @@
         <v>3.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
-      <c r="R6" s="49" t="s">
-        <v>144</v>
+      <c r="R6" s="51" t="s">
+        <v>164</v>
       </c>
       <c r="S6" s="9">
         <v>14.0</v>
@@ -74819,7 +75115,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C7" s="9">
         <v>14.0</v>
@@ -74830,8 +75126,8 @@
       <c r="E7" s="9">
         <v>2.0</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>145</v>
+      <c r="F7" s="51" t="s">
+        <v>165</v>
       </c>
       <c r="G7" s="9">
         <v>2.0</v>
@@ -74851,19 +75147,63 @@
         <v>1.0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="S7" s="9">
         <v>12.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
